--- a/biology/Médecine/Tubercule_(os)/Tubercule_(os).xlsx
+++ b/biology/Médecine/Tubercule_(os)/Tubercule_(os).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En anatomie, un tubercule est un relief arrondi à la surface d'un organe.
 Pour un os il sert d'attache aux tendons des muscles squelettiques via une enthèse. Lorsque sa taille est plus importante, il est parfois nommé tubérosité.
@@ -514,25 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Humérus
-Grand tubercule de l'humérus.
-Petit tubercule de l'humérus.
-Radius
-Tubérosité du radius.
-Tubercule dorsal du radius.
-Côtes
-Tubercule de la côte (ou tubérosité costale).
-Tibia
-Tubérosité du tibia.
-Tubercule intercondylaire du tibia.
-Tubercule infra-condylaire.
-Fémur
-Les tubercules du fémur sont nommés trochanter :
-Grand trochanter.
-Petit trochanter.
-Troisième trochanter (inconstant).
-Cinquième métatarsien
-Tubérosité du cinquième os métatarsien.</t>
+          <t>Humérus</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Grand tubercule de l'humérus.
+Petit tubercule de l'humérus.</t>
         </is>
       </c>
     </row>
@@ -557,20 +558,280 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Principaux tubercules du squelette humain</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Radius</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tubérosité du radius.
+Tubercule dorsal du radius.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tubercule_(os)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tubercule_(os)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Principaux tubercules du squelette humain</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Côtes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tubercule de la côte (ou tubérosité costale).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tubercule_(os)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tubercule_(os)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Principaux tubercules du squelette humain</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tibia</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tubérosité du tibia.
+Tubercule intercondylaire du tibia.
+Tubercule infra-condylaire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tubercule_(os)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tubercule_(os)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Principaux tubercules du squelette humain</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fémur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les tubercules du fémur sont nommés trochanter :
+Grand trochanter.
+Petit trochanter.
+Troisième trochanter (inconstant).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tubercule_(os)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tubercule_(os)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Principaux tubercules du squelette humain</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cinquième métatarsien</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tubérosité du cinquième os métatarsien.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tubercule_(os)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tubercule_(os)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fractures
-Le principal type de fracture affectant les tubercules est la fracture par avulsion par traction du tendon et arrachage du tendon.
-Apophysite
-Les apophysites sont des inflammation d'un tubercule. Elle touche principalement les enfants en pleine croissance avec sursollicitation du tubercule atteint :
-Maladie d'Osgood-Schlatter (apophysite du tubercule tibial)[1]
-Maladie de Sever (apophysite du tubercule postérieur du talon)[2], [3].
-Syndrome de Sinding-Larsen et Johansson (apophysite du pôle inférieur de la rotule)[4].
-Enthésite
-Une enthésite est une affection anatomiquement proche mais distincte, caractérisée par une inflammation des enthèses[5],[6]. Elle est associée aux arthropathies HLA B27 telles que la spondylarthrite ankylosante, le rhumatisme psoriasique et l'arthrite réactive[7],[8].
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fractures</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le principal type de fracture affectant les tubercules est la fracture par avulsion par traction du tendon et arrachage du tendon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tubercule_(os)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tubercule_(os)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Apophysite</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Les apophysites sont des inflammation d'un tubercule. Elle touche principalement les enfants en pleine croissance avec sursollicitation du tubercule atteint :
+Maladie d'Osgood-Schlatter (apophysite du tubercule tibial)
+Maladie de Sever (apophysite du tubercule postérieur du talon), .
+Syndrome de Sinding-Larsen et Johansson (apophysite du pôle inférieur de la rotule).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tubercule_(os)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tubercule_(os)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Enthésite</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une enthésite est une affection anatomiquement proche mais distincte, caractérisée par une inflammation des enthèses,. Elle est associée aux arthropathies HLA B27 telles que la spondylarthrite ankylosante, le rhumatisme psoriasique et l'arthrite réactive,.
 </t>
         </is>
       </c>
